--- a/ND-landing-yen-sao_edit.xlsx
+++ b/ND-landing-yen-sao_edit.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\yensao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Yến Sào One Nest - Giải pháp toàn diện cho trẻ biếng ăn</t>
   </si>
@@ -289,29 +294,6 @@
     <t>Bổ sung hotline: 0962.059.299</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Vitamin nhóm B ( B1, B2, B3, B5, B9, PP và Vitamin D3), và Taurine </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>giúp bé điều hòa và phát triển tinh thần, chống lại mệt mỏi, mang lại giấc ngủ ngon và sâu.</t>
-    </r>
-  </si>
-  <si>
     <t>Nội dung</t>
   </si>
   <si>
@@ -344,7 +326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -571,6 +553,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -586,12 +607,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,39 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,6 +628,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -694,7 +679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,7 +714,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,11 +938,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
+      <c r="A1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="13" t="s">
         <v>47</v>
       </c>
@@ -978,232 +963,230 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="34">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="34"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30">
-      <c r="A6" s="34"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="34"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="34">
+      <c r="A8" s="32">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="34"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="32">
         <v>5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="34"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="34"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A16" s="34">
+      <c r="A16" s="32">
         <v>6</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4" ht="45">
-      <c r="A17" s="34"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" ht="45">
-      <c r="A18" s="34"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="44"/>
-    </row>
-    <row r="19" spans="1:4" ht="45">
-      <c r="A19" s="34"/>
-      <c r="B19" s="16" t="s">
-        <v>50</v>
-      </c>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="32"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="22"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A20" s="34">
+      <c r="A20" s="32">
         <v>7</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="46"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="34"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A23" s="40">
+      <c r="A23" s="29">
         <v>8</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="46"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="30">
-      <c r="A24" s="41"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="42"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="48"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="39"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="30.75" customHeight="1">
@@ -1211,13 +1194,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
@@ -1236,10 +1219,10 @@
       <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="37"/>
+      <c r="B29" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="48"/>
       <c r="D29" s="14"/>
     </row>
     <row r="31" spans="1:4">
@@ -1250,10 +1233,10 @@
     </row>
     <row r="34" spans="1:2" ht="157.5">
       <c r="A34" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1261,6 +1244,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D4:D7"/>
@@ -1277,13 +1267,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1329,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1345,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>48</v>

--- a/ND-landing-yen-sao_edit.xlsx
+++ b/ND-landing-yen-sao_edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Yến Sào One Nest - Giải pháp toàn diện cho trẻ biếng ăn</t>
   </si>
@@ -322,12 +322,38 @@
 "Trẻ ở lứa tuổi ăn dặm là có thể sử dụng được yến sào. Trẻ bị biếng ăn, suy dinh dưỡng, ngủ không ngon giấc, hay bị các bệnh về phổi, viêm phế quản là những trường hợp cần thiết nên bổ sung yến đều đặn. Nếu được dùng yến sào thường xuyên và đúng liều lượng, trẻ sẽ hết biếng ăn, khả năng miễn dịch, sức đề kháng được cải thiện. Ngoài ra, các nguyên tố vi lượng có trong yến sào rất có ích cho quá trình ổn định thần kinh và tăng cường trí nhớ của trẻ."
 </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vitamin nhóm B (B1, B2, B3, B5, B9, PP và Vitamin D3), và Taurine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Giúp bé điều hòa và phát triển tinh thần, chống lại mệt mỏi, mang lại giấc ngủ ngon và sâu.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +404,23 @@
       <color rgb="FF1D2129"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -475,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,6 +596,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,12 +636,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,32 +662,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -938,11 +984,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="13" t="s">
         <v>47</v>
       </c>
@@ -963,230 +1009,232 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="32">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="43"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="44"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="32">
+      <c r="A8" s="34">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="40"/>
     </row>
     <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A11" s="32">
+      <c r="A11" s="34">
         <v>5</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4" ht="30">
-      <c r="A12" s="32"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="32"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="32"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="44"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A16" s="32">
+      <c r="A16" s="34">
         <v>6</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="45">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="44"/>
     </row>
     <row r="18" spans="1:4" ht="45">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="35"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="16"/>
+      <c r="D18" s="44"/>
+    </row>
+    <row r="19" spans="1:4" ht="60">
+      <c r="A19" s="34"/>
+      <c r="B19" s="51" t="s">
+        <v>59</v>
+      </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="36"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="34">
         <v>7</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A23" s="29">
+      <c r="A23" s="40">
         <v>8</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:4" ht="30">
-      <c r="A24" s="30"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="31"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11">
         <v>9</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="30.75" customHeight="1">
@@ -1219,10 +1267,10 @@
       <c r="A29" s="11">
         <v>12</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="48"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="14"/>
     </row>
     <row r="31" spans="1:4">
@@ -1244,13 +1292,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D4:D7"/>
@@ -1267,6 +1308,13 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
